--- a/stock_historical_data/1wk/GOODYEAR.BO.xlsx
+++ b/stock_historical_data/1wk/GOODYEAR.BO.xlsx
@@ -68095,7 +68095,9 @@
       <c r="P1276" t="n">
         <v>0</v>
       </c>
-      <c r="Q1276" t="inlineStr"/>
+      <c r="Q1276" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/GOODYEAR.BO.xlsx
+++ b/stock_historical_data/1wk/GOODYEAR.BO.xlsx
@@ -71981,7 +71981,9 @@
       <c r="Q1277" t="n">
         <v>0</v>
       </c>
-      <c r="R1277" t="inlineStr"/>
+      <c r="R1277" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/GOODYEAR.BO.xlsx
+++ b/stock_historical_data/1wk/GOODYEAR.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1277"/>
+  <dimension ref="A1:R1279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71805,7 +71805,7 @@
         <v>21</v>
       </c>
       <c r="O1274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1274" t="n">
         <v>0</v>
@@ -71984,6 +71984,114 @@
       <c r="R1277" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1278" t="n">
+        <v>1175.050048828125</v>
+      </c>
+      <c r="C1278" t="n">
+        <v>1205</v>
+      </c>
+      <c r="D1278" t="n">
+        <v>1155</v>
+      </c>
+      <c r="E1278" t="n">
+        <v>1175.099975585938</v>
+      </c>
+      <c r="F1278" t="n">
+        <v>1175.099975585938</v>
+      </c>
+      <c r="G1278" t="n">
+        <v>26165</v>
+      </c>
+      <c r="H1278" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1278" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1278" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1278" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1278" t="inlineStr"/>
+    </row>
+    <row r="1279">
+      <c r="A1279" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1279" t="n">
+        <v>1165.099975585938</v>
+      </c>
+      <c r="C1279" t="n">
+        <v>1221.099975585938</v>
+      </c>
+      <c r="D1279" t="n">
+        <v>1145</v>
+      </c>
+      <c r="E1279" t="n">
+        <v>1198.650024414062</v>
+      </c>
+      <c r="F1279" t="n">
+        <v>1198.650024414062</v>
+      </c>
+      <c r="G1279" t="n">
+        <v>122025</v>
+      </c>
+      <c r="H1279" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1279" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1279" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1279" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1279" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/GOODYEAR.BO.xlsx
+++ b/stock_historical_data/1wk/GOODYEAR.BO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1279"/>
+  <dimension ref="A1:R1314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3491,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -4891,7 +4891,7 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R79" t="n">
         <v>0</v>
@@ -71917,7 +71917,7 @@
         <v>23</v>
       </c>
       <c r="O1276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1276" t="n">
         <v>0</v>
@@ -72037,7 +72037,9 @@
       <c r="Q1278" t="n">
         <v>0</v>
       </c>
-      <c r="R1278" t="inlineStr"/>
+      <c r="R1278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1279">
       <c r="A1279" s="2" t="n">
@@ -72091,7 +72093,1829 @@
       <c r="Q1279" t="n">
         <v>0</v>
       </c>
-      <c r="R1279" t="inlineStr"/>
+      <c r="R1279" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1280" t="n">
+        <v>1182.709964061372</v>
+      </c>
+      <c r="C1280" t="n">
+        <v>1211.542049378842</v>
+      </c>
+      <c r="D1280" t="n">
+        <v>1168.145787021162</v>
+      </c>
+      <c r="E1280" t="n">
+        <v>1172.243408203125</v>
+      </c>
+      <c r="F1280" t="inlineStr"/>
+      <c r="G1280" t="n">
+        <v>46329</v>
+      </c>
+      <c r="H1280" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1280" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1280" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1280" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1280" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1280" t="inlineStr"/>
+    </row>
+    <row r="1281">
+      <c r="A1281" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1281" t="n">
+        <v>1176.982992791018</v>
+      </c>
+      <c r="C1281" t="n">
+        <v>1219.441271893379</v>
+      </c>
+      <c r="D1281" t="n">
+        <v>1165.134170715941</v>
+      </c>
+      <c r="E1281" t="n">
+        <v>1175.650024414062</v>
+      </c>
+      <c r="F1281" t="inlineStr"/>
+      <c r="G1281" t="n">
+        <v>45103</v>
+      </c>
+      <c r="H1281" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1281" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1281" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1281" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1281" t="inlineStr"/>
+    </row>
+    <row r="1282">
+      <c r="A1282" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1282" t="n">
+        <v>1181.919966432204</v>
+      </c>
+      <c r="C1282" t="n">
+        <v>1218.453833397945</v>
+      </c>
+      <c r="D1282" t="n">
+        <v>1160.345260992709</v>
+      </c>
+      <c r="E1282" t="n">
+        <v>1174.020751953125</v>
+      </c>
+      <c r="F1282" t="inlineStr"/>
+      <c r="G1282" t="n">
+        <v>60974</v>
+      </c>
+      <c r="H1282" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1282" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1282" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1282" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1282" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1282" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1282" t="inlineStr"/>
+    </row>
+    <row r="1283">
+      <c r="A1283" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1283" t="n">
+        <v>1181.821260180341</v>
+      </c>
+      <c r="C1283" t="n">
+        <v>1199.69320898131</v>
+      </c>
+      <c r="D1283" t="n">
+        <v>1141.535217789224</v>
+      </c>
+      <c r="E1283" t="n">
+        <v>1173.428344726562</v>
+      </c>
+      <c r="F1283" t="inlineStr"/>
+      <c r="G1283" t="n">
+        <v>33186</v>
+      </c>
+      <c r="H1283" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1283" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1283" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1283" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1283" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1283" t="inlineStr"/>
+    </row>
+    <row r="1284">
+      <c r="A1284" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1284" t="n">
+        <v>1200</v>
+      </c>
+      <c r="C1284" t="n">
+        <v>1260</v>
+      </c>
+      <c r="D1284" t="n">
+        <v>1185.25</v>
+      </c>
+      <c r="E1284" t="n">
+        <v>1219</v>
+      </c>
+      <c r="F1284" t="inlineStr"/>
+      <c r="G1284" t="n">
+        <v>96856</v>
+      </c>
+      <c r="H1284" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1284" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1284" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1284" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1284" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1284" t="inlineStr"/>
+    </row>
+    <row r="1285">
+      <c r="A1285" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1285" t="n">
+        <v>1197</v>
+      </c>
+      <c r="C1285" t="n">
+        <v>1210</v>
+      </c>
+      <c r="D1285" t="n">
+        <v>1172</v>
+      </c>
+      <c r="E1285" t="n">
+        <v>1183.300048828125</v>
+      </c>
+      <c r="F1285" t="inlineStr"/>
+      <c r="G1285" t="n">
+        <v>30954</v>
+      </c>
+      <c r="H1285" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1285" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1285" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1285" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1285" t="inlineStr"/>
+    </row>
+    <row r="1286">
+      <c r="A1286" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1286" t="n">
+        <v>1180.300048828125</v>
+      </c>
+      <c r="C1286" t="n">
+        <v>1207</v>
+      </c>
+      <c r="D1286" t="n">
+        <v>1154</v>
+      </c>
+      <c r="E1286" t="n">
+        <v>1159</v>
+      </c>
+      <c r="F1286" t="inlineStr"/>
+      <c r="G1286" t="n">
+        <v>23887</v>
+      </c>
+      <c r="H1286" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1286" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1286" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1286" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1286" t="inlineStr"/>
+    </row>
+    <row r="1287">
+      <c r="A1287" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1287" t="n">
+        <v>1164</v>
+      </c>
+      <c r="C1287" t="n">
+        <v>1185</v>
+      </c>
+      <c r="D1287" t="n">
+        <v>1150</v>
+      </c>
+      <c r="E1287" t="n">
+        <v>1172.199951171875</v>
+      </c>
+      <c r="F1287" t="inlineStr"/>
+      <c r="G1287" t="n">
+        <v>48057</v>
+      </c>
+      <c r="H1287" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1287" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1287" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1287" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1287" t="inlineStr"/>
+    </row>
+    <row r="1288">
+      <c r="A1288" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1288" t="n">
+        <v>1172.199951171875</v>
+      </c>
+      <c r="C1288" t="n">
+        <v>1186</v>
+      </c>
+      <c r="D1288" t="n">
+        <v>1161.099975585938</v>
+      </c>
+      <c r="E1288" t="n">
+        <v>1172.449951171875</v>
+      </c>
+      <c r="F1288" t="inlineStr"/>
+      <c r="G1288" t="n">
+        <v>21774</v>
+      </c>
+      <c r="H1288" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1288" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1288" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1288" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1288" t="inlineStr"/>
+    </row>
+    <row r="1289">
+      <c r="A1289" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1289" t="n">
+        <v>1166.099975585938</v>
+      </c>
+      <c r="C1289" t="n">
+        <v>1189</v>
+      </c>
+      <c r="D1289" t="n">
+        <v>1161.900024414062</v>
+      </c>
+      <c r="E1289" t="n">
+        <v>1170.699951171875</v>
+      </c>
+      <c r="F1289" t="inlineStr"/>
+      <c r="G1289" t="n">
+        <v>48015</v>
+      </c>
+      <c r="H1289" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1289" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1289" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1289" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1289" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1289" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1289" t="inlineStr"/>
+    </row>
+    <row r="1290">
+      <c r="A1290" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1290" t="n">
+        <v>1169.150024414062</v>
+      </c>
+      <c r="C1290" t="n">
+        <v>1176.550048828125</v>
+      </c>
+      <c r="D1290" t="n">
+        <v>1149.099975585938</v>
+      </c>
+      <c r="E1290" t="n">
+        <v>1165.849975585938</v>
+      </c>
+      <c r="F1290" t="inlineStr"/>
+      <c r="G1290" t="n">
+        <v>45770</v>
+      </c>
+      <c r="H1290" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1290" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1290" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1290" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1290" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1290" t="inlineStr"/>
+    </row>
+    <row r="1291">
+      <c r="A1291" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1291" t="n">
+        <v>1177</v>
+      </c>
+      <c r="C1291" t="n">
+        <v>1178.199951171875</v>
+      </c>
+      <c r="D1291" t="n">
+        <v>1154</v>
+      </c>
+      <c r="E1291" t="n">
+        <v>1159.699951171875</v>
+      </c>
+      <c r="F1291" t="inlineStr"/>
+      <c r="G1291" t="n">
+        <v>37558</v>
+      </c>
+      <c r="H1291" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1291" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1291" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1291" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1291" t="inlineStr"/>
+    </row>
+    <row r="1292">
+      <c r="A1292" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1292" t="n">
+        <v>1169.900024414062</v>
+      </c>
+      <c r="C1292" t="n">
+        <v>1173.5</v>
+      </c>
+      <c r="D1292" t="n">
+        <v>1154</v>
+      </c>
+      <c r="E1292" t="n">
+        <v>1162</v>
+      </c>
+      <c r="F1292" t="inlineStr"/>
+      <c r="G1292" t="n">
+        <v>34754</v>
+      </c>
+      <c r="H1292" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1292" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1292" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1292" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1292" t="inlineStr"/>
+    </row>
+    <row r="1293">
+      <c r="A1293" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1293" t="n">
+        <v>1168</v>
+      </c>
+      <c r="C1293" t="n">
+        <v>1168.949951171875</v>
+      </c>
+      <c r="D1293" t="n">
+        <v>1141</v>
+      </c>
+      <c r="E1293" t="n">
+        <v>1141.949951171875</v>
+      </c>
+      <c r="F1293" t="inlineStr"/>
+      <c r="G1293" t="n">
+        <v>27498</v>
+      </c>
+      <c r="H1293" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1293" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1293" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1293" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1293" t="inlineStr"/>
+    </row>
+    <row r="1294">
+      <c r="A1294" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1294" t="n">
+        <v>1142</v>
+      </c>
+      <c r="C1294" t="n">
+        <v>1151.199951171875</v>
+      </c>
+      <c r="D1294" t="n">
+        <v>1105</v>
+      </c>
+      <c r="E1294" t="n">
+        <v>1126.949951171875</v>
+      </c>
+      <c r="F1294" t="inlineStr"/>
+      <c r="G1294" t="n">
+        <v>32929</v>
+      </c>
+      <c r="H1294" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1294" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1294" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1294" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1294" t="inlineStr"/>
+    </row>
+    <row r="1295">
+      <c r="A1295" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1295" t="n">
+        <v>1122</v>
+      </c>
+      <c r="C1295" t="n">
+        <v>1138</v>
+      </c>
+      <c r="D1295" t="n">
+        <v>1095</v>
+      </c>
+      <c r="E1295" t="n">
+        <v>1113.349975585938</v>
+      </c>
+      <c r="F1295" t="inlineStr"/>
+      <c r="G1295" t="n">
+        <v>27853</v>
+      </c>
+      <c r="H1295" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1295" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1295" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1295" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1295" t="inlineStr"/>
+    </row>
+    <row r="1296">
+      <c r="A1296" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1296" t="n">
+        <v>1128.800048828125</v>
+      </c>
+      <c r="C1296" t="n">
+        <v>1128.800048828125</v>
+      </c>
+      <c r="D1296" t="n">
+        <v>1020.049987792969</v>
+      </c>
+      <c r="E1296" t="n">
+        <v>1030.050048828125</v>
+      </c>
+      <c r="F1296" t="inlineStr"/>
+      <c r="G1296" t="n">
+        <v>62396</v>
+      </c>
+      <c r="H1296" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1296" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1296" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1296" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1296" t="inlineStr"/>
+    </row>
+    <row r="1297">
+      <c r="A1297" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1297" t="n">
+        <v>1030.550048828125</v>
+      </c>
+      <c r="C1297" t="n">
+        <v>1049.900024414062</v>
+      </c>
+      <c r="D1297" t="n">
+        <v>1007.099975585938</v>
+      </c>
+      <c r="E1297" t="n">
+        <v>1033.300048828125</v>
+      </c>
+      <c r="F1297" t="inlineStr"/>
+      <c r="G1297" t="n">
+        <v>20903</v>
+      </c>
+      <c r="H1297" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1297" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1297" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1297" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1297" t="inlineStr"/>
+    </row>
+    <row r="1298">
+      <c r="A1298" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1298" t="n">
+        <v>1038</v>
+      </c>
+      <c r="C1298" t="n">
+        <v>1042</v>
+      </c>
+      <c r="D1298" t="n">
+        <v>1013</v>
+      </c>
+      <c r="E1298" t="n">
+        <v>1031.699951171875</v>
+      </c>
+      <c r="F1298" t="inlineStr"/>
+      <c r="G1298" t="n">
+        <v>38129</v>
+      </c>
+      <c r="H1298" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1298" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1298" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1298" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1298" t="inlineStr"/>
+    </row>
+    <row r="1299">
+      <c r="A1299" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1299" t="n">
+        <v>1042.699951171875</v>
+      </c>
+      <c r="C1299" t="n">
+        <v>1042.699951171875</v>
+      </c>
+      <c r="D1299" t="n">
+        <v>1003.099975585938</v>
+      </c>
+      <c r="E1299" t="n">
+        <v>1005.200012207031</v>
+      </c>
+      <c r="F1299" t="inlineStr"/>
+      <c r="G1299" t="n">
+        <v>19581</v>
+      </c>
+      <c r="H1299" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1299" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1299" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1299" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1299" t="inlineStr"/>
+    </row>
+    <row r="1300">
+      <c r="A1300" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1300" t="n">
+        <v>1014</v>
+      </c>
+      <c r="C1300" t="n">
+        <v>1023</v>
+      </c>
+      <c r="D1300" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E1300" t="n">
+        <v>1011.200012207031</v>
+      </c>
+      <c r="F1300" t="inlineStr"/>
+      <c r="G1300" t="n">
+        <v>21728</v>
+      </c>
+      <c r="H1300" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1300" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1300" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1300" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1300" t="inlineStr"/>
+    </row>
+    <row r="1301">
+      <c r="A1301" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1301" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C1301" t="n">
+        <v>1084</v>
+      </c>
+      <c r="D1301" t="n">
+        <v>1011.099975585938</v>
+      </c>
+      <c r="E1301" t="n">
+        <v>1038.75</v>
+      </c>
+      <c r="F1301" t="inlineStr"/>
+      <c r="G1301" t="n">
+        <v>22386</v>
+      </c>
+      <c r="H1301" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1301" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1301" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1301" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1301" t="inlineStr"/>
+    </row>
+    <row r="1302">
+      <c r="A1302" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1302" t="n">
+        <v>1038.75</v>
+      </c>
+      <c r="C1302" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D1302" t="n">
+        <v>1024.949951171875</v>
+      </c>
+      <c r="E1302" t="n">
+        <v>1028.349975585938</v>
+      </c>
+      <c r="F1302" t="inlineStr"/>
+      <c r="G1302" t="n">
+        <v>24660</v>
+      </c>
+      <c r="H1302" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1302" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1302" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1302" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1302" t="inlineStr"/>
+    </row>
+    <row r="1303">
+      <c r="A1303" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1303" t="n">
+        <v>1025.099975585938</v>
+      </c>
+      <c r="C1303" t="n">
+        <v>1078</v>
+      </c>
+      <c r="D1303" t="n">
+        <v>1021.200012207031</v>
+      </c>
+      <c r="E1303" t="n">
+        <v>1028.650024414062</v>
+      </c>
+      <c r="F1303" t="inlineStr"/>
+      <c r="G1303" t="n">
+        <v>34080</v>
+      </c>
+      <c r="H1303" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1303" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1303" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1303" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1303" t="inlineStr"/>
+    </row>
+    <row r="1304">
+      <c r="A1304" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1304" t="n">
+        <v>1030.099975585938</v>
+      </c>
+      <c r="C1304" t="n">
+        <v>1049</v>
+      </c>
+      <c r="D1304" t="n">
+        <v>1009.099975585938</v>
+      </c>
+      <c r="E1304" t="n">
+        <v>1011.950012207031</v>
+      </c>
+      <c r="F1304" t="inlineStr"/>
+      <c r="G1304" t="n">
+        <v>22569</v>
+      </c>
+      <c r="H1304" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1304" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1304" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1304" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1304" t="inlineStr"/>
+    </row>
+    <row r="1305">
+      <c r="A1305" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1305" t="n">
+        <v>1012.099975585938</v>
+      </c>
+      <c r="C1305" t="n">
+        <v>1030</v>
+      </c>
+      <c r="D1305" t="n">
+        <v>999</v>
+      </c>
+      <c r="E1305" t="n">
+        <v>1014.099975585938</v>
+      </c>
+      <c r="F1305" t="inlineStr"/>
+      <c r="G1305" t="n">
+        <v>15126</v>
+      </c>
+      <c r="H1305" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1305" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1305" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1305" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1305" t="inlineStr"/>
+    </row>
+    <row r="1306">
+      <c r="A1306" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1306" t="n">
+        <v>1025</v>
+      </c>
+      <c r="C1306" t="n">
+        <v>1028</v>
+      </c>
+      <c r="D1306" t="n">
+        <v>1000.450012207031</v>
+      </c>
+      <c r="E1306" t="n">
+        <v>1020.25</v>
+      </c>
+      <c r="F1306" t="inlineStr"/>
+      <c r="G1306" t="n">
+        <v>18587</v>
+      </c>
+      <c r="H1306" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1306" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1306" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1306" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1306" t="inlineStr"/>
+    </row>
+    <row r="1307">
+      <c r="A1307" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1307" t="n">
+        <v>1020.25</v>
+      </c>
+      <c r="C1307" t="n">
+        <v>1028.849975585938</v>
+      </c>
+      <c r="D1307" t="n">
+        <v>990</v>
+      </c>
+      <c r="E1307" t="n">
+        <v>991.6500244140625</v>
+      </c>
+      <c r="F1307" t="inlineStr"/>
+      <c r="G1307" t="n">
+        <v>20204</v>
+      </c>
+      <c r="H1307" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1307" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1307" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1307" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1307" t="inlineStr"/>
+    </row>
+    <row r="1308">
+      <c r="A1308" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1308" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C1308" t="n">
+        <v>1005</v>
+      </c>
+      <c r="D1308" t="n">
+        <v>916.0999755859375</v>
+      </c>
+      <c r="E1308" t="n">
+        <v>944.5</v>
+      </c>
+      <c r="F1308" t="inlineStr"/>
+      <c r="G1308" t="n">
+        <v>39006</v>
+      </c>
+      <c r="H1308" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1308" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1308" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1308" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1308" t="inlineStr"/>
+    </row>
+    <row r="1309">
+      <c r="A1309" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1309" t="n">
+        <v>940.2000122070312</v>
+      </c>
+      <c r="C1309" t="n">
+        <v>967.9000244140625</v>
+      </c>
+      <c r="D1309" t="n">
+        <v>935</v>
+      </c>
+      <c r="E1309" t="n">
+        <v>951.0499877929688</v>
+      </c>
+      <c r="F1309" t="inlineStr"/>
+      <c r="G1309" t="n">
+        <v>29850</v>
+      </c>
+      <c r="H1309" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1309" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1309" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1309" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1309" t="inlineStr"/>
+    </row>
+    <row r="1310">
+      <c r="A1310" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1310" t="n">
+        <v>947.2999877929688</v>
+      </c>
+      <c r="C1310" t="n">
+        <v>958</v>
+      </c>
+      <c r="D1310" t="n">
+        <v>916</v>
+      </c>
+      <c r="E1310" t="n">
+        <v>950.6500244140625</v>
+      </c>
+      <c r="F1310" t="inlineStr"/>
+      <c r="G1310" t="n">
+        <v>22349</v>
+      </c>
+      <c r="H1310" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1310" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1310" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1310" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1310" t="inlineStr"/>
+    </row>
+    <row r="1311">
+      <c r="A1311" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1311" t="n">
+        <v>950.6500244140625</v>
+      </c>
+      <c r="C1311" t="n">
+        <v>968.7999877929688</v>
+      </c>
+      <c r="D1311" t="n">
+        <v>925.7999877929688</v>
+      </c>
+      <c r="E1311" t="n">
+        <v>945.5</v>
+      </c>
+      <c r="F1311" t="inlineStr"/>
+      <c r="G1311" t="n">
+        <v>52035</v>
+      </c>
+      <c r="H1311" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1311" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1311" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1311" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1311" t="inlineStr"/>
+    </row>
+    <row r="1312">
+      <c r="A1312" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1312" t="n">
+        <v>944.0499877929688</v>
+      </c>
+      <c r="C1312" t="n">
+        <v>955</v>
+      </c>
+      <c r="D1312" t="n">
+        <v>860</v>
+      </c>
+      <c r="E1312" t="n">
+        <v>877.0499877929688</v>
+      </c>
+      <c r="F1312" t="inlineStr"/>
+      <c r="G1312" t="n">
+        <v>44892</v>
+      </c>
+      <c r="H1312" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1312" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1312" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1312" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1312" t="inlineStr"/>
+    </row>
+    <row r="1313">
+      <c r="A1313" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1313" t="n">
+        <v>876.9500122070312</v>
+      </c>
+      <c r="C1313" t="n">
+        <v>890</v>
+      </c>
+      <c r="D1313" t="n">
+        <v>850</v>
+      </c>
+      <c r="E1313" t="n">
+        <v>876.9000244140625</v>
+      </c>
+      <c r="F1313" t="inlineStr"/>
+      <c r="G1313" t="n">
+        <v>27502</v>
+      </c>
+      <c r="H1313" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1313" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1313" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1313" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1313" t="inlineStr"/>
+    </row>
+    <row r="1314">
+      <c r="A1314" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1314" t="n">
+        <v>870</v>
+      </c>
+      <c r="C1314" t="n">
+        <v>885</v>
+      </c>
+      <c r="D1314" t="n">
+        <v>825</v>
+      </c>
+      <c r="E1314" t="n">
+        <v>836.9500122070312</v>
+      </c>
+      <c r="F1314" t="inlineStr"/>
+      <c r="G1314" t="n">
+        <v>25530</v>
+      </c>
+      <c r="H1314" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1314" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1314" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1314" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1314" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/GOODYEAR.BO.xlsx
+++ b/stock_historical_data/1wk/GOODYEAR.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1314"/>
+  <dimension ref="A1:R1323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="Q93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R93" t="n">
         <v>0</v>
@@ -5787,7 +5787,7 @@
         <v>0</v>
       </c>
       <c r="Q95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R95" t="n">
         <v>0</v>
@@ -72147,7 +72147,9 @@
       <c r="Q1280" t="n">
         <v>2</v>
       </c>
-      <c r="R1280" t="inlineStr"/>
+      <c r="R1280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1281">
       <c r="A1281" s="2" t="n">
@@ -72199,7 +72201,9 @@
       <c r="Q1281" t="n">
         <v>0</v>
       </c>
-      <c r="R1281" t="inlineStr"/>
+      <c r="R1281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1282">
       <c r="A1282" s="2" t="n">
@@ -72251,7 +72255,9 @@
       <c r="Q1282" t="n">
         <v>1</v>
       </c>
-      <c r="R1282" t="inlineStr"/>
+      <c r="R1282" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1283">
       <c r="A1283" s="2" t="n">
@@ -72303,7 +72309,9 @@
       <c r="Q1283" t="n">
         <v>0</v>
       </c>
-      <c r="R1283" t="inlineStr"/>
+      <c r="R1283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1284">
       <c r="A1284" s="2" t="n">
@@ -72355,7 +72363,9 @@
       <c r="Q1284" t="n">
         <v>0</v>
       </c>
-      <c r="R1284" t="inlineStr"/>
+      <c r="R1284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1285">
       <c r="A1285" s="2" t="n">
@@ -72407,7 +72417,9 @@
       <c r="Q1285" t="n">
         <v>0</v>
       </c>
-      <c r="R1285" t="inlineStr"/>
+      <c r="R1285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1286">
       <c r="A1286" s="2" t="n">
@@ -72459,7 +72471,9 @@
       <c r="Q1286" t="n">
         <v>0</v>
       </c>
-      <c r="R1286" t="inlineStr"/>
+      <c r="R1286" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1287">
       <c r="A1287" s="2" t="n">
@@ -72511,7 +72525,9 @@
       <c r="Q1287" t="n">
         <v>0</v>
       </c>
-      <c r="R1287" t="inlineStr"/>
+      <c r="R1287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1288">
       <c r="A1288" s="2" t="n">
@@ -72563,7 +72579,9 @@
       <c r="Q1288" t="n">
         <v>0</v>
       </c>
-      <c r="R1288" t="inlineStr"/>
+      <c r="R1288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1289">
       <c r="A1289" s="2" t="n">
@@ -72615,7 +72633,9 @@
       <c r="Q1289" t="n">
         <v>1</v>
       </c>
-      <c r="R1289" t="inlineStr"/>
+      <c r="R1289" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1290">
       <c r="A1290" s="2" t="n">
@@ -72667,7 +72687,9 @@
       <c r="Q1290" t="n">
         <v>2</v>
       </c>
-      <c r="R1290" t="inlineStr"/>
+      <c r="R1290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1291">
       <c r="A1291" s="2" t="n">
@@ -72719,7 +72741,9 @@
       <c r="Q1291" t="n">
         <v>0</v>
       </c>
-      <c r="R1291" t="inlineStr"/>
+      <c r="R1291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1292">
       <c r="A1292" s="2" t="n">
@@ -72771,7 +72795,9 @@
       <c r="Q1292" t="n">
         <v>0</v>
       </c>
-      <c r="R1292" t="inlineStr"/>
+      <c r="R1292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1293">
       <c r="A1293" s="2" t="n">
@@ -72823,7 +72849,9 @@
       <c r="Q1293" t="n">
         <v>0</v>
       </c>
-      <c r="R1293" t="inlineStr"/>
+      <c r="R1293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1294">
       <c r="A1294" s="2" t="n">
@@ -72875,7 +72903,9 @@
       <c r="Q1294" t="n">
         <v>0</v>
       </c>
-      <c r="R1294" t="inlineStr"/>
+      <c r="R1294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1295">
       <c r="A1295" s="2" t="n">
@@ -72927,7 +72957,9 @@
       <c r="Q1295" t="n">
         <v>0</v>
       </c>
-      <c r="R1295" t="inlineStr"/>
+      <c r="R1295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1296">
       <c r="A1296" s="2" t="n">
@@ -72979,7 +73011,9 @@
       <c r="Q1296" t="n">
         <v>0</v>
       </c>
-      <c r="R1296" t="inlineStr"/>
+      <c r="R1296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1297">
       <c r="A1297" s="2" t="n">
@@ -73031,7 +73065,9 @@
       <c r="Q1297" t="n">
         <v>0</v>
       </c>
-      <c r="R1297" t="inlineStr"/>
+      <c r="R1297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1298">
       <c r="A1298" s="2" t="n">
@@ -73083,7 +73119,9 @@
       <c r="Q1298" t="n">
         <v>0</v>
       </c>
-      <c r="R1298" t="inlineStr"/>
+      <c r="R1298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1299">
       <c r="A1299" s="2" t="n">
@@ -73135,7 +73173,9 @@
       <c r="Q1299" t="n">
         <v>0</v>
       </c>
-      <c r="R1299" t="inlineStr"/>
+      <c r="R1299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1300">
       <c r="A1300" s="2" t="n">
@@ -73187,7 +73227,9 @@
       <c r="Q1300" t="n">
         <v>0</v>
       </c>
-      <c r="R1300" t="inlineStr"/>
+      <c r="R1300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1301">
       <c r="A1301" s="2" t="n">
@@ -73239,7 +73281,9 @@
       <c r="Q1301" t="n">
         <v>0</v>
       </c>
-      <c r="R1301" t="inlineStr"/>
+      <c r="R1301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1302">
       <c r="A1302" s="2" t="n">
@@ -73291,7 +73335,9 @@
       <c r="Q1302" t="n">
         <v>0</v>
       </c>
-      <c r="R1302" t="inlineStr"/>
+      <c r="R1302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1303">
       <c r="A1303" s="2" t="n">
@@ -73343,7 +73389,9 @@
       <c r="Q1303" t="n">
         <v>0</v>
       </c>
-      <c r="R1303" t="inlineStr"/>
+      <c r="R1303" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1304">
       <c r="A1304" s="2" t="n">
@@ -73395,7 +73443,9 @@
       <c r="Q1304" t="n">
         <v>0</v>
       </c>
-      <c r="R1304" t="inlineStr"/>
+      <c r="R1304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1305">
       <c r="A1305" s="2" t="n">
@@ -73447,7 +73497,9 @@
       <c r="Q1305" t="n">
         <v>0</v>
       </c>
-      <c r="R1305" t="inlineStr"/>
+      <c r="R1305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1306">
       <c r="A1306" s="2" t="n">
@@ -73499,7 +73551,9 @@
       <c r="Q1306" t="n">
         <v>0</v>
       </c>
-      <c r="R1306" t="inlineStr"/>
+      <c r="R1306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1307">
       <c r="A1307" s="2" t="n">
@@ -73551,7 +73605,9 @@
       <c r="Q1307" t="n">
         <v>0</v>
       </c>
-      <c r="R1307" t="inlineStr"/>
+      <c r="R1307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1308">
       <c r="A1308" s="2" t="n">
@@ -73603,7 +73659,9 @@
       <c r="Q1308" t="n">
         <v>0</v>
       </c>
-      <c r="R1308" t="inlineStr"/>
+      <c r="R1308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1309">
       <c r="A1309" s="2" t="n">
@@ -73655,7 +73713,9 @@
       <c r="Q1309" t="n">
         <v>0</v>
       </c>
-      <c r="R1309" t="inlineStr"/>
+      <c r="R1309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1310">
       <c r="A1310" s="2" t="n">
@@ -73707,7 +73767,9 @@
       <c r="Q1310" t="n">
         <v>0</v>
       </c>
-      <c r="R1310" t="inlineStr"/>
+      <c r="R1310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1311">
       <c r="A1311" s="2" t="n">
@@ -73759,7 +73821,9 @@
       <c r="Q1311" t="n">
         <v>0</v>
       </c>
-      <c r="R1311" t="inlineStr"/>
+      <c r="R1311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1312">
       <c r="A1312" s="2" t="n">
@@ -73811,7 +73875,9 @@
       <c r="Q1312" t="n">
         <v>0</v>
       </c>
-      <c r="R1312" t="inlineStr"/>
+      <c r="R1312" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1313">
       <c r="A1313" s="2" t="n">
@@ -73863,7 +73929,9 @@
       <c r="Q1313" t="n">
         <v>0</v>
       </c>
-      <c r="R1313" t="inlineStr"/>
+      <c r="R1313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1314">
       <c r="A1314" s="2" t="n">
@@ -73915,7 +73983,477 @@
       <c r="Q1314" t="n">
         <v>0</v>
       </c>
-      <c r="R1314" t="inlineStr"/>
+      <c r="R1314" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1315" t="n">
+        <v>854.9500122070312</v>
+      </c>
+      <c r="C1315" t="n">
+        <v>854.9500122070312</v>
+      </c>
+      <c r="D1315" t="n">
+        <v>810.6500244140625</v>
+      </c>
+      <c r="E1315" t="n">
+        <v>838.6500244140625</v>
+      </c>
+      <c r="F1315" t="inlineStr"/>
+      <c r="G1315" t="n">
+        <v>33843</v>
+      </c>
+      <c r="H1315" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1315" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1315" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1315" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1315" t="inlineStr"/>
+    </row>
+    <row r="1316">
+      <c r="A1316" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1316" t="n">
+        <v>841.7999877929688</v>
+      </c>
+      <c r="C1316" t="n">
+        <v>859</v>
+      </c>
+      <c r="D1316" t="n">
+        <v>816</v>
+      </c>
+      <c r="E1316" t="n">
+        <v>818.25</v>
+      </c>
+      <c r="F1316" t="inlineStr"/>
+      <c r="G1316" t="n">
+        <v>28544</v>
+      </c>
+      <c r="H1316" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1316" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1316" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1316" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1316" t="inlineStr"/>
+    </row>
+    <row r="1317">
+      <c r="A1317" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1317" t="n">
+        <v>810.0999755859375</v>
+      </c>
+      <c r="C1317" t="n">
+        <v>848.5999755859375</v>
+      </c>
+      <c r="D1317" t="n">
+        <v>806</v>
+      </c>
+      <c r="E1317" t="n">
+        <v>837.6500244140625</v>
+      </c>
+      <c r="F1317" t="inlineStr"/>
+      <c r="G1317" t="n">
+        <v>48641</v>
+      </c>
+      <c r="H1317" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1317" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1317" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1317" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1317" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1317" t="inlineStr"/>
+    </row>
+    <row r="1318">
+      <c r="A1318" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1318" t="n">
+        <v>840.6500244140625</v>
+      </c>
+      <c r="C1318" t="n">
+        <v>854.4000244140625</v>
+      </c>
+      <c r="D1318" t="n">
+        <v>810.0499877929688</v>
+      </c>
+      <c r="E1318" t="n">
+        <v>814.4500122070312</v>
+      </c>
+      <c r="F1318" t="inlineStr"/>
+      <c r="G1318" t="n">
+        <v>69391</v>
+      </c>
+      <c r="H1318" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1318" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1318" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1318" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1318" t="inlineStr"/>
+    </row>
+    <row r="1319">
+      <c r="A1319" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B1319" t="n">
+        <v>814.9500122070312</v>
+      </c>
+      <c r="C1319" t="n">
+        <v>852.25</v>
+      </c>
+      <c r="D1319" t="n">
+        <v>809.2000122070312</v>
+      </c>
+      <c r="E1319" t="n">
+        <v>830.4500122070312</v>
+      </c>
+      <c r="F1319" t="inlineStr"/>
+      <c r="G1319" t="n">
+        <v>17626</v>
+      </c>
+      <c r="H1319" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1319" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1319" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1319" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1319" t="inlineStr"/>
+    </row>
+    <row r="1320">
+      <c r="A1320" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1320" t="n">
+        <v>811.2999877929688</v>
+      </c>
+      <c r="C1320" t="n">
+        <v>849</v>
+      </c>
+      <c r="D1320" t="n">
+        <v>808</v>
+      </c>
+      <c r="E1320" t="n">
+        <v>839.6500244140625</v>
+      </c>
+      <c r="F1320" t="inlineStr"/>
+      <c r="G1320" t="n">
+        <v>16726</v>
+      </c>
+      <c r="H1320" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1320" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1320" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1320" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1320" t="inlineStr"/>
+    </row>
+    <row r="1321">
+      <c r="A1321" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B1321" t="n">
+        <v>842.5</v>
+      </c>
+      <c r="C1321" t="n">
+        <v>910</v>
+      </c>
+      <c r="D1321" t="n">
+        <v>842.5</v>
+      </c>
+      <c r="E1321" t="n">
+        <v>902</v>
+      </c>
+      <c r="F1321" t="inlineStr"/>
+      <c r="G1321" t="n">
+        <v>32341</v>
+      </c>
+      <c r="H1321" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1321" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1321" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1321" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1321" t="inlineStr"/>
+    </row>
+    <row r="1322">
+      <c r="A1322" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1322" t="n">
+        <v>918</v>
+      </c>
+      <c r="C1322" t="n">
+        <v>959</v>
+      </c>
+      <c r="D1322" t="n">
+        <v>864</v>
+      </c>
+      <c r="E1322" t="n">
+        <v>869.5499877929688</v>
+      </c>
+      <c r="F1322" t="inlineStr"/>
+      <c r="G1322" t="n">
+        <v>59647</v>
+      </c>
+      <c r="H1322" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1322" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1322" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1322" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1322" t="inlineStr"/>
+    </row>
+    <row r="1323">
+      <c r="A1323" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1323" t="n">
+        <v>875</v>
+      </c>
+      <c r="C1323" t="n">
+        <v>911</v>
+      </c>
+      <c r="D1323" t="n">
+        <v>855.2999877929688</v>
+      </c>
+      <c r="E1323" t="n">
+        <v>899.7000122070312</v>
+      </c>
+      <c r="F1323" t="inlineStr"/>
+      <c r="G1323" t="n">
+        <v>26724</v>
+      </c>
+      <c r="H1323" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1323" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1323" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1323" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1323" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1323" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
